--- a/RUDN/Importance/Varible_muatal_in_Southern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Southern Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
@@ -52,15 +52,15 @@
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
@@ -106,15 +106,15 @@
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -127,24 +127,24 @@
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -172,6 +172,9 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
@@ -181,7 +184,10 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
@@ -190,24 +196,18 @@
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
@@ -235,39 +235,39 @@
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
@@ -286,31 +286,34 @@
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
@@ -334,9 +337,6 @@
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -352,12 +352,12 @@
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -370,24 +370,24 @@
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
@@ -403,33 +403,33 @@
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
@@ -439,45 +439,45 @@
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+    <t>Female population 25-29</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
@@ -499,21 +499,21 @@
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -523,63 +523,66 @@
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
   </si>
   <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
@@ -592,21 +595,18 @@
     <t>Female population 65-69</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -616,6 +616,9 @@
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
@@ -628,18 +631,15 @@
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -691,6 +691,9 @@
     <t>Female population 05-09</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -700,6 +703,9 @@
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
@@ -709,462 +715,456 @@
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Employment in services, female (% of female employment)</t>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
@@ -1177,45 +1177,45 @@
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
     <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
     <t>Literacy rate, youth female (% of females ages 15-24)</t>
   </si>
   <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
@@ -1231,6 +1231,9 @@
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
@@ -1246,7 +1249,7 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
@@ -1255,31 +1258,34 @@
     <t>Expected years of schooling, female</t>
   </si>
   <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
     <t>Region_code</t>
@@ -1643,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.22169101064733</v>
+        <v>1.223090278046597</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1667,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.15962285031094</v>
+        <v>1.160813326501416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1675,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.15962285031094</v>
+        <v>1.160813326501416</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1683,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.051627599514684</v>
+        <v>1.051122105009189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1691,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.002543200760038</v>
+        <v>1.001114629331466</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1707,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9202403568736086</v>
+        <v>0.9178594044926562</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1715,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8956619547347495</v>
+        <v>0.9060781189707892</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1723,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8467447051856842</v>
+        <v>0.8435701020110811</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1731,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8353051363815838</v>
+        <v>0.8392733903498382</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1739,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8346147591338058</v>
+        <v>0.8355435922054966</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1747,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8054406805891472</v>
+        <v>0.8041804329003281</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1755,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7953731185942505</v>
+        <v>0.8017108543337108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1763,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7934478269552483</v>
+        <v>0.7953731185942505</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1771,7 +1777,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7839683190911755</v>
+        <v>0.7939013416944771</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1779,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7787834379403327</v>
+        <v>0.7816405807974758</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1787,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7478001038137467</v>
+        <v>0.7492286752423181</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1795,7 +1801,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7344088410341314</v>
+        <v>0.7332183648436557</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1803,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7135387691505657</v>
+        <v>0.714967340579137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1835,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6985545341172665</v>
+        <v>0.6995761816621953</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1843,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6971054856915</v>
+        <v>0.6985545341172665</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1875,7 +1881,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6505419089524818</v>
+        <v>0.6476832016737166</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1891,7 +1897,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6423936076139851</v>
+        <v>0.6406078933282711</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1899,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6345161091907205</v>
+        <v>0.6375786789034392</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1907,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6326937779848425</v>
+        <v>0.6345161091907205</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1915,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6321251641642109</v>
+        <v>0.6338842541753187</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1923,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.627372756201618</v>
+        <v>0.6261822800111414</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1939,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6139558872506963</v>
+        <v>0.622807155030535</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1947,7 +1953,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6106775636469552</v>
+        <v>0.6136367473204247</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1955,7 +1961,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6034149696427638</v>
+        <v>0.6034925753133797</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1963,7 +1969,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5975401943609984</v>
+        <v>0.6021054458332395</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1979,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5807935788757566</v>
+        <v>0.5819840550662327</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1987,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.577536554680421</v>
+        <v>0.5787270308708972</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1995,7 +2001,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.577536554680421</v>
+        <v>0.5787270308708972</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2011,7 +2017,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5626179363462938</v>
+        <v>0.5638084125367699</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2075,7 +2081,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5380062831946999</v>
+        <v>0.5415513802328467</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2083,7 +2089,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5290521002355097</v>
+        <v>0.5380062831946999</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2091,7 +2097,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5273495069763547</v>
+        <v>0.5290521002355097</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2099,7 +2105,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5223933755391261</v>
+        <v>0.5285399831668314</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2107,7 +2113,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5206732883731791</v>
+        <v>0.5275405809221856</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2115,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5197294446393164</v>
+        <v>0.5270435929618182</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2123,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5187315478640588</v>
+        <v>0.5221018598017508</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2131,7 +2137,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5179855710186461</v>
+        <v>0.5197294446393164</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2139,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5126804135148078</v>
+        <v>0.5128359595838883</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2147,7 +2153,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5116454833934116</v>
+        <v>0.5126804135148078</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2155,7 +2161,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5105378504631184</v>
+        <v>0.5117283266535941</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2163,7 +2169,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5097256543326285</v>
+        <v>0.5111112828418372</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2187,7 +2193,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5079900971378382</v>
+        <v>0.5070377161854576</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2195,7 +2201,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5051444261354789</v>
+        <v>0.5067317277227805</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2203,7 +2209,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5040672488712268</v>
+        <v>0.5052577250617025</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2219,7 +2225,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4920478737093199</v>
+        <v>0.4934764451378917</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2243,7 +2249,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4637371730813582</v>
+        <v>0.4669682946632963</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2251,7 +2257,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4583995433702925</v>
+        <v>0.4637371730813582</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2259,7 +2265,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.457181707490796</v>
+        <v>0.4557817077837218</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2267,7 +2273,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4557817077837218</v>
+        <v>0.454286664548551</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2275,7 +2281,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4549609238779824</v>
+        <v>0.4467919531690661</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2283,7 +2289,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.4467919531690661</v>
+        <v>0.4443792112793736</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2291,7 +2297,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4396173065174689</v>
+        <v>0.4384941252317853</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2299,7 +2305,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.4371127584642234</v>
+        <v>0.4369710351082143</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2331,7 +2337,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4246864024983372</v>
+        <v>0.4214995893115239</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2371,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.3940699756455839</v>
+        <v>0.3893080708836791</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2379,7 +2385,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.3821570502131226</v>
+        <v>0.3801551047291318</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2387,7 +2393,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.380650795397409</v>
+        <v>0.3788390778628923</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2395,7 +2401,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.3801551047291318</v>
+        <v>0.3773328230471786</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2411,7 +2417,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.3559604088771278</v>
+        <v>0.3531863128771371</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2419,7 +2425,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.3552769683184767</v>
+        <v>0.3519589959682461</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2427,7 +2433,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.3507896963357839</v>
+        <v>0.3389529198645205</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2435,7 +2441,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.3401433960549971</v>
+        <v>0.3322578559352394</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2443,7 +2449,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.3294007130780965</v>
+        <v>0.3316349644107062</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2451,7 +2457,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.3262784443892521</v>
+        <v>0.3309818360874268</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2467,7 +2473,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.325327793405418</v>
+        <v>0.3259300123335029</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2475,7 +2481,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.3227447204927445</v>
+        <v>0.325327793405418</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2483,7 +2489,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.3207160292676865</v>
+        <v>0.3227447204927445</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2491,7 +2497,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.3117436871681591</v>
+        <v>0.3207160292676865</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2499,7 +2505,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.3115106060645652</v>
+        <v>0.3117436871681591</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2507,7 +2513,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.3113606905277537</v>
+        <v>0.3115106060645652</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2547,7 +2553,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.2924711752935076</v>
+        <v>0.2891532029432773</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2555,7 +2561,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.2921140324363649</v>
+        <v>0.2887960600861346</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2563,7 +2569,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.2921140324363649</v>
+        <v>0.2887960600861346</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2571,7 +2577,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2900554587925597</v>
+        <v>0.2876745064116069</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2603,7 +2609,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.275682182865717</v>
+        <v>0.2763552559528464</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2611,7 +2617,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.2750049204070228</v>
+        <v>0.275682182865717</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2619,7 +2625,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.2743516103502017</v>
+        <v>0.2707758295706064</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2627,7 +2633,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.2707758295706064</v>
+        <v>0.2704845281796739</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2635,7 +2641,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.2696531751552194</v>
+        <v>0.2702224766366976</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2643,7 +2649,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.2614662131613588</v>
+        <v>0.2696531751552194</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2675,7 +2681,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.2478786645470747</v>
+        <v>0.2487214702240252</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2691,7 +2697,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.2445282793280015</v>
+        <v>0.2424026995707076</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2699,7 +2705,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.2424026995707076</v>
+        <v>0.2402425650422875</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2707,7 +2713,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.2380694874932703</v>
+        <v>0.2383501721713976</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2723,7 +2729,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.237205092477504</v>
+        <v>0.2337837732075561</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2731,7 +2737,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.2369216007428261</v>
+        <v>0.2336914576895075</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2739,7 +2745,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.2336914576895075</v>
+        <v>0.2329853863909572</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2747,7 +2753,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.2318167405835252</v>
+        <v>0.2329193781917898</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2755,7 +2761,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.2315568149623857</v>
+        <v>0.2318167405835252</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2787,7 +2793,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.2212016607374248</v>
+        <v>0.2215806847441852</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2803,7 +2809,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.2204823316472106</v>
+        <v>0.220752545833681</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2811,7 +2817,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.2201521133156135</v>
+        <v>0.2190849752520732</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2819,7 +2825,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.2190849752520732</v>
+        <v>0.2190367668880602</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2827,7 +2833,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.2190367668880602</v>
+        <v>0.2184415287928219</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2835,7 +2841,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.2186209402930801</v>
+        <v>0.217234097601688</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2843,7 +2849,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.2184415287928219</v>
+        <v>0.2169094222770132</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2867,7 +2873,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.2155255071887794</v>
+        <v>0.215487375023139</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2875,7 +2881,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.2151932812751576</v>
+        <v>0.2133953141729488</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2883,7 +2889,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.2133953141729488</v>
+        <v>0.2129066545787943</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2899,7 +2905,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.2080767872756226</v>
+        <v>0.2060359709490918</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2923,7 +2929,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1922246731670905</v>
+        <v>0.1964810834235007</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2947,7 +2953,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1864424593912712</v>
+        <v>0.1864186086154458</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2979,7 +2985,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1825108607995869</v>
+        <v>0.1848551578039697</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2987,7 +2993,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1803495274495286</v>
+        <v>0.1832972248670535</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3003,7 +3009,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1761232486009698</v>
+        <v>0.1776217107626283</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3011,7 +3017,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1759402127332403</v>
+        <v>0.1749154686637844</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3019,7 +3025,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1755365866762066</v>
+        <v>0.1748216197599324</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3027,7 +3033,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1748216197599324</v>
+        <v>0.1730521854721427</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3035,7 +3041,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.17317049515905</v>
+        <v>0.1722813636549463</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3043,7 +3049,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1730521854721427</v>
+        <v>0.1720421519937367</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3067,7 +3073,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1704745698878649</v>
+        <v>0.1704060616392093</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3075,7 +3081,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1704060616392093</v>
+        <v>0.1698019066090415</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3083,7 +3089,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1694242207978034</v>
+        <v>0.1688520310805421</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3091,7 +3097,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1688520310805421</v>
+        <v>0.1656075890764392</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3099,7 +3105,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1680171347146915</v>
+        <v>0.1646991623644609</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3107,7 +3113,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1669447637518986</v>
+        <v>0.1604006147720376</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3115,7 +3121,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1604006147720376</v>
+        <v>0.1599773941512392</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3123,7 +3129,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1599773941512392</v>
+        <v>0.1595038070973469</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3131,7 +3137,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1572483894119385</v>
+        <v>0.1573844438337073</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3147,7 +3153,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1537652557960218</v>
+        <v>0.1543627071824303</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3155,7 +3161,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1532009631900906</v>
+        <v>0.1540310590304617</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3163,7 +3169,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1524303875129596</v>
+        <v>0.1537652557960218</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3171,7 +3177,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.151590765570742</v>
+        <v>0.1524303875129596</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3179,7 +3185,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.151508527215712</v>
+        <v>0.151590765570742</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3187,7 +3193,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1505887870949321</v>
+        <v>0.151508527215712</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3195,7 +3201,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1489164012961588</v>
+        <v>0.1505887870949321</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3203,7 +3209,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1484969534963558</v>
+        <v>0.1478102572232012</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3219,7 +3225,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1475185645066128</v>
+        <v>0.1470593565508052</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3227,7 +3233,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1470593565508052</v>
+        <v>0.1459358708020768</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3259,7 +3265,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1368181885119324</v>
+        <v>0.1380688075017797</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3267,7 +3273,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1366413216589475</v>
+        <v>0.1368181885119324</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3275,7 +3281,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1363295062643097</v>
+        <v>0.1366413216589475</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3283,7 +3289,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1355434453270516</v>
+        <v>0.1363295062643097</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3291,7 +3297,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1352116646446369</v>
+        <v>0.1355434453270516</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3299,7 +3305,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1341195966430275</v>
+        <v>0.1337859842475939</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3307,7 +3313,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.1337859842475939</v>
+        <v>0.1314764702490621</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3315,7 +3321,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1314764702490621</v>
+        <v>0.1299576863259915</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3363,7 +3369,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1198567336040692</v>
+        <v>0.1201889595176902</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3411,7 +3417,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.1137794209732732</v>
+        <v>0.1136484257189387</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3419,7 +3425,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1137794209732732</v>
+        <v>0.1131445003383527</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3427,7 +3433,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1136484257189387</v>
+        <v>0.1131445003383527</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3459,7 +3465,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1105895807387525</v>
+        <v>0.1110158583945855</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3467,7 +3473,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.110082036723683</v>
+        <v>0.1105895807387525</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3475,7 +3481,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1099202682133817</v>
+        <v>0.110082036723683</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3483,7 +3489,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1085384476184708</v>
+        <v>0.1099202682133817</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3491,7 +3497,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1080021724102849</v>
+        <v>0.1097598822074322</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3499,7 +3505,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1078903686705266</v>
+        <v>0.1085384476184708</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3507,7 +3513,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1071316033950132</v>
+        <v>0.1080021724102849</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3515,7 +3521,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1067992621464626</v>
+        <v>0.1078903686705266</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3523,7 +3529,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1060177513955185</v>
+        <v>0.1067992621464626</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3531,7 +3537,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1052894491393028</v>
+        <v>0.1062917663629763</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3555,7 +3561,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1025860472784306</v>
+        <v>0.103066929858598</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3563,7 +3569,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.102263735401863</v>
+        <v>0.1025860472784306</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3571,7 +3577,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1011200471188713</v>
+        <v>0.102263735401863</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3579,7 +3585,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1003765400572398</v>
+        <v>0.1011200471188713</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3587,7 +3593,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1002006318167674</v>
+        <v>0.1003765400572398</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3595,7 +3601,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.1001303481216864</v>
+        <v>0.09996800178795939</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3603,7 +3609,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.09996800178795939</v>
+        <v>0.09963153737866715</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3611,7 +3617,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.09963153737866715</v>
+        <v>0.09954211881547792</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3619,7 +3625,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.09954211881547792</v>
+        <v>0.09953617998952513</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3627,7 +3633,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.09906279901846293</v>
+        <v>0.0981134443326106</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3635,7 +3641,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.0981134443326106</v>
+        <v>0.09760917434281269</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3643,7 +3649,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.09720614776540382</v>
+        <v>0.09760917434281269</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3651,7 +3657,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.09639850179756904</v>
+        <v>0.09748210157984993</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3659,7 +3665,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0963305232058953</v>
+        <v>0.09720614776540382</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3667,7 +3673,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.09528921095533627</v>
+        <v>0.09639850179756904</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3675,7 +3681,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.09453157708059634</v>
+        <v>0.0963305232058953</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3683,7 +3689,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.09426992258800793</v>
+        <v>0.09453157708059634</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3691,7 +3697,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.09411944637330794</v>
+        <v>0.09426992258800793</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3699,7 +3705,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.09378416954918234</v>
+        <v>0.09411944637330794</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3707,7 +3713,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.09284726958090772</v>
+        <v>0.09378416954918234</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3715,7 +3721,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.09284726958090772</v>
+        <v>0.09219790966816888</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3723,7 +3729,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.09219790966816888</v>
+        <v>0.09195066924776651</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3731,7 +3737,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.09195066924776651</v>
+        <v>0.0917071635168154</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3747,7 +3753,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.09097892011162978</v>
+        <v>0.09069445249964314</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3755,7 +3761,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.09097892011162978</v>
+        <v>0.08985093718489656</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3763,7 +3769,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.09097892011162978</v>
+        <v>0.08981797912690737</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3771,7 +3777,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.09097892011162978</v>
+        <v>0.08930613821569122</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3779,7 +3785,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.09097892011162978</v>
+        <v>0.0888587813937356</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3787,7 +3793,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.09097892011162978</v>
+        <v>0.08791102297129783</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3795,7 +3801,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.09097892011162978</v>
+        <v>0.08760820451544049</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3803,7 +3809,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3811,7 +3817,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3819,7 +3825,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3827,7 +3833,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3835,7 +3841,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3843,7 +3849,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3851,7 +3857,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3859,7 +3865,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3867,7 +3873,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3875,7 +3881,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3883,7 +3889,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3891,7 +3897,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3899,7 +3905,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3907,7 +3913,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3915,7 +3921,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3923,7 +3929,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3931,7 +3937,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3939,7 +3945,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.09097892011162978</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3947,7 +3953,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.09069445249964314</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3955,7 +3961,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.08985093718489656</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3963,7 +3969,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.08981797912690737</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3971,7 +3977,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.0888587813937356</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3979,7 +3985,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.08791102297129783</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3987,7 +3993,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.08767340863342343</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3995,7 +4001,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.08767340863342343</v>
+        <v>0.08740749154020122</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4003,7 +4009,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.08767340863342343</v>
+        <v>0.08731253877872525</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4011,7 +4017,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.08767340863342343</v>
+        <v>0.08686101598680351</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4019,7 +4025,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.08767340863342343</v>
+        <v>0.0867727992250964</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4027,7 +4033,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.08767340863342343</v>
+        <v>0.08672489643292414</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4035,7 +4041,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.08767340863342343</v>
+        <v>0.08562973502290516</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4043,7 +4049,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.08767340863342343</v>
+        <v>0.08562973502290516</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4051,7 +4057,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4059,7 +4065,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4067,7 +4073,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4075,7 +4081,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4083,7 +4089,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4091,7 +4097,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4099,7 +4105,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4107,7 +4113,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4115,7 +4121,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4123,7 +4129,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4131,7 +4137,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4139,7 +4145,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.08767340863342343</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4147,7 +4153,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.08760820451544049</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4155,7 +4161,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.08731253877872525</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4163,7 +4169,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.08686101598680351</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4171,7 +4177,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.0867727992250964</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4179,7 +4185,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.08672489643292414</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4187,7 +4193,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.08562973502290516</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4195,7 +4201,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.08562973502290516</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4203,7 +4209,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.08476679889950822</v>
+        <v>0.08553055149056621</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4235,7 +4241,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.08154034580913239</v>
+        <v>0.08262394175665122</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4243,7 +4249,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.08125342479693454</v>
+        <v>0.08246922921060085</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4251,7 +4257,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.07939021590523487</v>
+        <v>0.08177116828618725</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4259,7 +4265,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.07911010386041606</v>
+        <v>0.08154034580913239</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4267,7 +4273,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.07890626118244004</v>
+        <v>0.08149105624136843</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4275,7 +4281,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.07866413043183451</v>
+        <v>0.08040193369201987</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4283,7 +4289,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.07866413043183451</v>
+        <v>0.07890626118244004</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4299,7 +4305,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.0759822713777456</v>
+        <v>0.07866413043183451</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4307,7 +4313,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.07564002893011512</v>
+        <v>0.07866413043183451</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4315,7 +4321,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.07337976324260875</v>
+        <v>0.07832114968862847</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4323,7 +4329,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.07294541968679114</v>
+        <v>0.07599274062205419</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4331,7 +4337,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.07269285699403261</v>
+        <v>0.07547206729611289</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4339,7 +4345,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.07091638272911327</v>
+        <v>0.07456403990075655</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4347,7 +4353,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.06983233030745417</v>
+        <v>0.07337976324260875</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4355,7 +4361,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.06921895287911428</v>
+        <v>0.07269285699403261</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4363,7 +4369,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.0676302720153239</v>
+        <v>0.07239217677722865</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4371,7 +4377,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.06600269171229112</v>
+        <v>0.07091638272911327</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4379,7 +4385,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.06509010930559311</v>
+        <v>0.07008222904259265</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4387,7 +4393,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.0649710959033305</v>
+        <v>0.06983233030745417</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4395,7 +4401,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.06483913079153059</v>
+        <v>0.06670054293741834</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4403,7 +4409,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.06454755650451083</v>
+        <v>0.0649710959033305</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4411,7 +4417,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.06413513864975151</v>
+        <v>0.06469597738969024</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4419,7 +4425,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.06248724611655998</v>
+        <v>0.06458461480009881</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4427,7 +4433,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.06102311654789938</v>
+        <v>0.06454755650451083</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4435,7 +4441,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.0606622615466903</v>
+        <v>0.06413513864975151</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4443,7 +4449,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.06047784872607576</v>
+        <v>0.06102311654789938</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4451,7 +4457,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.06041731400492112</v>
+        <v>0.0606622615466903</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4459,7 +4465,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.05991827707287145</v>
+        <v>0.06041731400492112</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4475,7 +4481,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.05946371637809422</v>
+        <v>0.05991827707287145</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4483,7 +4489,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.05828522601715203</v>
+        <v>0.05946371637809422</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4491,7 +4497,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.05828522601715203</v>
+        <v>0.05916435917623053</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4523,7 +4529,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.05786845015536102</v>
+        <v>0.05828522601715203</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4531,7 +4537,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.05786845015536102</v>
+        <v>0.05828522601715203</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4539,7 +4545,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.05786845015536102</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4547,7 +4553,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.05786845015536102</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4555,7 +4561,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.05786845015536102</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4563,7 +4569,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.05786845015536102</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4571,7 +4577,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.05786845015536102</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4579,7 +4585,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.05768222791910338</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4587,7 +4593,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.05727662677213252</v>
+        <v>0.05711416285067106</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4619,7 +4625,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.05711416285067106</v>
+        <v>0.0567296277939966</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4627,7 +4633,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.05711416285067106</v>
+        <v>0.0567296277939966</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4635,7 +4641,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.05711416285067106</v>
+        <v>0.05606811385627819</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4643,7 +4649,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.05711416285067106</v>
+        <v>0.05584691092975169</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4651,7 +4657,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.05711416285067106</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4659,7 +4665,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.05711416285067106</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4667,7 +4673,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.05711416285067106</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4675,7 +4681,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.0567296277939966</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4683,7 +4689,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.0567296277939966</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4691,7 +4697,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.05606811385627819</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4699,7 +4705,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.05567766237137506</v>
+        <v>0.05572559301250402</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4723,7 +4729,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.04607529271562671</v>
+        <v>0.05145240239038196</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4731,7 +4737,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.04577961483474469</v>
+        <v>0.05025183867652916</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4755,7 +4761,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.04278832231552521</v>
+        <v>0.0416534349353217</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4763,7 +4769,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.04278832231552521</v>
+        <v>0.04026105085539999</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4771,7 +4777,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4779,7 +4785,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4787,7 +4793,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4795,7 +4801,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4803,7 +4809,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4811,7 +4817,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.04278832231552521</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4819,7 +4825,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.04262370625160661</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4827,7 +4833,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.03951441106285336</v>
+        <v>0.03921689374409665</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4835,7 +4841,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.03667289853460742</v>
+        <v>0.03690269777137489</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4843,7 +4849,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.03661914455864612</v>
+        <v>0.03667132529922545</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4851,7 +4857,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.03600464059898956</v>
+        <v>0.03661914455864612</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4899,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.02988924174291374</v>
+        <v>0.03162107220511534</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4907,7 +4913,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.02924389752827516</v>
+        <v>0.02988924174291374</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4931,7 +4937,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.02545707105031658</v>
+        <v>0.02924389752827516</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4939,7 +4945,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.02260275718680038</v>
+        <v>0.01950469009793543</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4947,7 +4953,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.01572385390633713</v>
+        <v>0.01757674010315591</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4963,7 +4969,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.01461615190205801</v>
+        <v>0.01572385390633713</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4971,7 +4977,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.01405140040507891</v>
+        <v>0.01482360117727954</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -4979,7 +4985,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01076578905526837</v>
+        <v>0.01398171666205683</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -4987,7 +4993,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.009925452920814148</v>
+        <v>0.01076578905526837</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -4995,7 +5001,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.009725306405646394</v>
+        <v>0.009925452920814148</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5019,7 +5025,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.008558425084840726</v>
+        <v>0.005092342378248516</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5027,7 +5033,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7.482992901275409e-05</v>
+        <v>0.0001825487957332061</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5035,7 +5041,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.77635683940025e-15</v>
+        <v>1.581888688551025e-05</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5043,6 +5049,22 @@
         <v>423</v>
       </c>
       <c r="B425">
+        <v>1.581888688551025e-05</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>1.77635683940025e-15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B427">
         <v>1.77635683940025e-15</v>
       </c>
     </row>
